--- a/static/Жилые_Комплексы/ЖК_Бахор/price_shaxamtka.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/price_shaxamtka.xlsx
@@ -1207,16 +1207,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4400000</v>
+        <v>5000000</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4600000</v>
+        <v>5400000</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>4800000</v>
+        <v>5600000</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5000000</v>
+        <v>5800000</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" s="6">
@@ -1224,16 +1224,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4600000</v>
+        <v>5200000</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4800000</v>
+        <v>5600000</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>5000000</v>
+        <v>5900000</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5200000</v>
+        <v>6100000</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" s="6">
@@ -1241,16 +1241,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4800000</v>
+        <v>5400000</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5000000</v>
+        <v>5900000</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>5200000</v>
+        <v>6100000</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5400000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="6">
@@ -1258,16 +1258,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5000000</v>
+        <v>5600000</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5200000</v>
+        <v>6000000</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>5400000</v>
+        <v>6200000</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>5600000</v>
+        <v>6400000</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1" s="6">
@@ -1275,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5200000</v>
+        <v>5700000</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5400000</v>
+        <v>6100000</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>5600000</v>
+        <v>6300000</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5800000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1" s="6">
